--- a/Team-Data/2012-13/4-3-2012-13.xlsx
+++ b/Team-Data/2012-13/4-3-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.553</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
@@ -699,25 +766,25 @@
         <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="P2" t="n">
         <v>19.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.709</v>
+        <v>0.712</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -726,43 +793,43 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="n">
         <v>11</v>
       </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -783,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -801,16 +868,16 @@
         <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
@@ -866,10 +933,10 @@
         <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
@@ -887,10 +954,10 @@
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="S3" t="n">
         <v>31.4</v>
@@ -899,10 +966,10 @@
         <v>39.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.300000000000001</v>
@@ -911,10 +978,10 @@
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>19.6</v>
@@ -923,25 +990,25 @@
         <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -959,16 +1026,16 @@
         <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>7</v>
       </c>
       <c r="AR3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -977,13 +1044,13 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>22</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.581</v>
+        <v>0.575</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
@@ -1060,7 +1127,7 @@
         <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>17.4</v>
@@ -1072,16 +1139,16 @@
         <v>0.733</v>
       </c>
       <c r="R4" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
@@ -1099,16 +1166,16 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1129,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1150,10 +1217,10 @@
         <v>24</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,16 +1229,16 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1180,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1239,64 +1306,64 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O5" t="n">
         <v>19.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
         <v>11.2</v>
       </c>
       <c r="S5" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -1338,10 +1405,10 @@
         <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1514,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1526,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1544,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>0.297</v>
+        <v>0.301</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P7" t="n">
         <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R7" t="n">
         <v>12.1</v>
@@ -1624,13 +1691,13 @@
         <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
         <v>20.7</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>8.1</v>
@@ -1639,7 +1706,7 @@
         <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>21.2</v>
@@ -1648,13 +1715,13 @@
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.8</v>
+        <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1696,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1708,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1869,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>8</v>
@@ -1905,7 +1972,7 @@
         <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>40.5</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L9" t="n">
         <v>6.3</v>
@@ -1970,25 +2037,25 @@
         <v>18.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="R9" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S9" t="n">
         <v>31.4</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U9" t="n">
         <v>24.2</v>
@@ -1997,7 +2064,7 @@
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2006,19 +2073,19 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
@@ -2078,13 +2145,13 @@
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.697</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>6.8</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
         <v>19.6</v>
@@ -2218,19 +2285,19 @@
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2242,22 +2309,22 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
@@ -2266,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.573</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2328,22 +2395,22 @@
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
         <v>21.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R11" t="n">
         <v>10.8</v>
@@ -2355,16 +2422,16 @@
         <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.9</v>
@@ -2373,16 +2440,16 @@
         <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2439,25 +2506,25 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
         <v>82.7</v>
@@ -2516,16 +2583,16 @@
         <v>28.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
@@ -2534,10 +2601,10 @@
         <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2552,28 +2619,28 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
         <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,31 +2825,31 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2806,13 +2873,13 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
@@ -2880,13 +2947,13 @@
         <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
         <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.71</v>
@@ -2898,19 +2965,19 @@
         <v>29.9</v>
       </c>
       <c r="T14" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
@@ -2919,13 +2986,13 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2958,22 +3025,22 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>20</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3143,7 +3210,7 @@
         <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3170,13 +3237,13 @@
         <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.445</v>
@@ -3247,10 +3314,10 @@
         <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q16" t="n">
         <v>0.778</v>
@@ -3259,16 +3326,16 @@
         <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3277,7 +3344,7 @@
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>20.2</v>
@@ -3289,10 +3356,10 @@
         <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
@@ -3352,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3361,13 +3428,13 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3507,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J18" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.437</v>
@@ -3611,16 +3678,16 @@
         <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
         <v>0.741</v>
       </c>
       <c r="R18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
@@ -3629,16 +3696,16 @@
         <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W18" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
@@ -3650,13 +3717,13 @@
         <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,10 +3735,10 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,16 +3747,16 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3707,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW18" t="n">
         <v>10</v>
@@ -3719,13 +3786,13 @@
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
         <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>0.378</v>
+        <v>0.37</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,13 +3857,13 @@
         <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.735</v>
@@ -3811,43 +3878,43 @@
         <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
         <v>18.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3877,34 +3944,34 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
@@ -3972,7 +4039,7 @@
         <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
         <v>15</v>
@@ -4008,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4044,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
@@ -4068,16 +4135,16 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX20" t="n">
         <v>8</v>
@@ -4095,7 +4162,7 @@
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.649</v>
+        <v>0.644</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4145,22 +4212,22 @@
         <v>81</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
         <v>0.374</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q21" t="n">
         <v>0.759</v>
@@ -4172,7 +4239,7 @@
         <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
         <v>19.2</v>
@@ -4181,10 +4248,10 @@
         <v>12.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
@@ -4193,19 +4260,19 @@
         <v>20.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -4220,10 +4287,10 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4244,7 +4311,7 @@
         <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>25</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4453,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0.253</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.331</v>
@@ -4524,19 +4591,19 @@
         <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>22.9</v>
@@ -4557,13 +4624,13 @@
         <v>19.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4614,16 +4681,16 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
       </c>
       <c r="AW23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4632,7 +4699,7 @@
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.405</v>
+        <v>0.411</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
         <v>12</v>
@@ -4709,25 +4776,25 @@
         <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
         <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V24" t="n">
         <v>13.1</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>4.8</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4790,28 +4857,28 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" t="n">
-        <v>0.307</v>
+        <v>0.311</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,10 +4937,10 @@
         <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4882,16 +4949,16 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="R25" t="n">
         <v>11.8</v>
@@ -4906,13 +4973,13 @@
         <v>22.4</v>
       </c>
       <c r="V25" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y25" t="n">
         <v>5</v>
@@ -4921,16 +4988,16 @@
         <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4957,7 +5024,7 @@
         <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4969,13 +5036,13 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4987,16 +5054,16 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="n">
-        <v>0.44</v>
+        <v>0.446</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5055,64 +5122,64 @@
         <v>81.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M26" t="n">
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P26" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5127,10 +5194,10 @@
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5151,22 +5218,22 @@
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
         <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5175,10 +5242,10 @@
         <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
         <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
         <v>7.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P27" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
         <v>11.5</v>
@@ -5270,7 +5337,7 @@
         <v>20.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.1</v>
@@ -5285,37 +5352,37 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
         <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5327,7 +5394,7 @@
         <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5360,10 +5427,10 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.747</v>
+        <v>0.743</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>39.4</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5425,28 +5492,28 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>25.1</v>
@@ -5458,25 +5525,25 @@
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
         <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
         <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5512,13 +5579,13 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>0.373</v>
+        <v>0.365</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
         <v>13.7</v>
@@ -5643,31 +5710,31 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5688,10 +5755,10 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,13 +5767,13 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
@@ -5715,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.513</v>
+        <v>0.52</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5789,28 +5856,28 @@
         <v>6.1</v>
       </c>
       <c r="M30" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
         <v>22.6</v>
@@ -5822,7 +5889,7 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
@@ -5837,7 +5904,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5885,16 +5952,16 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
         <v>28</v>
       </c>
       <c r="F31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
@@ -5974,13 +6041,13 @@
         <v>18.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
         <v>0.735</v>
@@ -5995,7 +6062,7 @@
         <v>43.5</v>
       </c>
       <c r="U31" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V31" t="n">
         <v>15.2</v>
@@ -6010,28 +6077,28 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,19 +6119,19 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
@@ -6085,19 +6152,19 @@
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2012-13</t>
+          <t>2013-04-03</t>
         </is>
       </c>
     </row>
